--- a/Sheets/AnimationData.xlsx
+++ b/Sheets/AnimationData.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tfdkg\UnityProject\Farm\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46863CC2-61A9-46B3-A7FD-EC72554FA2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740B343E-AD41-4640-82D6-15ABC2CC4360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62B5C00F-698F-4EE8-88B3-1AC2C87E7411}"/>
+    <workbookView xWindow="-27840" yWindow="30" windowWidth="28770" windowHeight="15450" activeTab="1" xr2:uid="{62B5C00F-698F-4EE8-88B3-1AC2C87E7411}"/>
   </bookViews>
   <sheets>
     <sheet name="Player" sheetId="6" r:id="rId1"/>
+    <sheet name="MiniVillagerWoman" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MiniVillagerWoman!$A$4:$I$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Player!$A$4:$I$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="105">
   <si>
     <t>$$AnimationData_Player$$</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +347,62 @@
   </si>
   <si>
     <t>Hair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$AnimationData_MiniVillagerWoman$$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Characters/NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniVillagerWoman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniVillagerWoman_walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniVillagerWoman_idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniVillagerWoman_jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniVillagerWoman_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniVillagerWoman_death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +491,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -470,6 +528,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -489,6 +550,10 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
@@ -518,6 +583,80 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="27432" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="맑은 고딕"/>
+                  <a:ea typeface="맑은 고딕"/>
+                </a:rPr>
+                <a:t>"." 값 제거 매크로</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -866,9 +1005,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A3:AG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2234,4 +2373,657 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E7635B-BB30-4093-BCE0-21F0A7A8B640}">
+  <dimension ref="A3:AG64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.375" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="29" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+    </row>
+    <row r="4" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="9"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="9"/>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="9"/>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="9"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="9"/>
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="9"/>
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="9"/>
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="G35" s="9"/>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="G36" s="9"/>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6"/>
+      <c r="G37" s="9"/>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="G38" s="9"/>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="6"/>
+      <c r="G39" s="9"/>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
+      <c r="G40" s="9"/>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6"/>
+      <c r="G41" s="9"/>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
+      <c r="G42" s="9"/>
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3073" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!DeleteSpecificValueCells">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
 </file>
--- a/Sheets/AnimationData.xlsx
+++ b/Sheets/AnimationData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tfdkg\UnityProject\Farm\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740B343E-AD41-4640-82D6-15ABC2CC4360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9135353C-178F-4BA1-B701-DE394DAFD7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27840" yWindow="30" windowWidth="28770" windowHeight="15450" activeTab="1" xr2:uid="{62B5C00F-698F-4EE8-88B3-1AC2C87E7411}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{62B5C00F-698F-4EE8-88B3-1AC2C87E7411}"/>
   </bookViews>
   <sheets>
     <sheet name="Player" sheetId="6" r:id="rId1"/>
@@ -402,7 +402,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24-17</t>
+    <t>24-27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2381,7 +2381,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
